--- a/testData/HackathonData.xlsx
+++ b/testData/HackathonData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="52">
   <si>
     <t>Lowest Price Available</t>
   </si>

--- a/testData/HackathonData.xlsx
+++ b/testData/HackathonData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="51">
   <si>
     <t>Lowest Price Available</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Sender's alert: Please enter a valid Email id.</t>
-  </si>
-  <si>
-    <t>₹ 2,961</t>
   </si>
 </sst>
 </file>
